--- a/Data/EC/NIT-9001141225.xlsx
+++ b/Data/EC/NIT-9001141225.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052E9C0F-2247-463D-9984-75385616B674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A433371E-58A4-4F7B-96FD-27861EAFB3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B861284-BF6A-49D6-8C35-49AD8C5BB86E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CD59D623-88E6-4331-93BC-910760F8FFD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="153">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,55 +65,355 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9155430</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS MANJARRES TORRES</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
     <t>8569413</t>
   </si>
   <si>
     <t>LUIS CARLOS GOMEZ FERRER</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
+    <t>1007591588</t>
+  </si>
+  <si>
+    <t>BRAYAN ANDRES THERAN CUADRADO</t>
+  </si>
+  <si>
+    <t>8852482</t>
+  </si>
+  <si>
+    <t>ARNOLDO HERNANDEZ DORADO</t>
   </si>
   <si>
     <t>72257978</t>
@@ -122,325 +422,46 @@
     <t>JUAN CARLOS VILLAMIZAR HERRERA</t>
   </si>
   <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>8852482</t>
-  </si>
-  <si>
-    <t>ARNOLDO HERNANDEZ DORADO</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>9155430</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS MANJARRES TORRES</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
     <t>1067717554</t>
   </si>
   <si>
     <t>RAUL DAZA CAMACHO</t>
   </si>
   <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
     <t>88260296</t>
   </si>
   <si>
     <t>RODGER ALAIN ARIAS GIRALDO</t>
   </si>
   <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
     <t>1002275439</t>
   </si>
   <si>
     <t>YIRA LUZ SIMARRA FERIA</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
+    <t>9173320</t>
+  </si>
+  <si>
+    <t>EZEQUIEL ANTONIO HERNANDEZ MENDOZA</t>
+  </si>
+  <si>
+    <t>1052087214</t>
+  </si>
+  <si>
+    <t>HECTOR MANUEL VILLEGAS MARQUEZ</t>
+  </si>
+  <si>
+    <t>73548696</t>
+  </si>
+  <si>
+    <t>AQUILINO RAFAEL HERNANDEZ MENDOZA</t>
   </si>
   <si>
     <t>1131111185</t>
   </si>
   <si>
     <t>VICTOR ALFONSO PALMA PADILLA</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1007591588</t>
-  </si>
-  <si>
-    <t>BRAYAN ANDRES THERAN CUADRADO</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -854,7 +875,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BAC495-38E5-9477-3E2B-1402724E0CFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00442794-5E96-CA7A-DA20-C1429CD83533}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,8 +1226,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3B0374-89DB-4A48-B59E-78188717592C}">
-  <dimension ref="B2:J350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C557D568-1E70-4DA5-8519-89F6986D3C6F}">
+  <dimension ref="B2:J393"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1217,7 +1238,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1230,7 +1251,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1275,7 +1296,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1307,12 +1328,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>81695430</v>
+        <v>84585147</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1323,17 +1344,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1360,13 +1381,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1383,10 +1404,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>358517</v>
+        <v>11458</v>
       </c>
       <c r="G16" s="18">
-        <v>8962915</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1397,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>358517</v>
@@ -1420,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>358517</v>
@@ -1443,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>358517</v>
@@ -1466,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>358517</v>
@@ -1489,13 +1510,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>358517</v>
@@ -1512,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>358517</v>
@@ -1535,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>358517</v>
@@ -1558,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>358517</v>
@@ -1581,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>358517</v>
@@ -1604,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>358517</v>
@@ -1627,13 +1648,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>358517</v>
@@ -1650,13 +1671,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>358517</v>
@@ -1673,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>358517</v>
@@ -1696,13 +1717,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>358517</v>
@@ -1719,19 +1740,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G31" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1742,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G32" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1765,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>358517</v>
@@ -1788,13 +1809,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>358517</v>
@@ -1811,19 +1832,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G35" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1834,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G36" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1857,13 +1878,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>358517</v>
@@ -1880,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>358517</v>
@@ -1903,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G39" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1926,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>358517</v>
@@ -1949,19 +1970,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G41" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1972,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>358517</v>
@@ -1995,19 +2016,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G43" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2018,19 +2039,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G44" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2041,19 +2062,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G45" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2064,13 +2085,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>358517</v>
@@ -2087,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G47" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2110,19 +2131,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G48" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2133,13 +2154,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
         <v>358517</v>
@@ -2156,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
-        <v>11458</v>
+        <v>358517</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>8962915</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2179,19 +2200,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G51" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2202,19 +2223,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G52" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2225,13 +2246,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
         <v>358517</v>
@@ -2248,19 +2269,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G54" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2271,19 +2292,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G55" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2294,13 +2315,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>358517</v>
@@ -2317,13 +2338,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
         <v>358517</v>
@@ -2340,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G58" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2363,19 +2384,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G59" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2386,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G60" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2409,19 +2430,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G61" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2432,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
         <v>358517</v>
@@ -2455,19 +2476,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G63" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2478,13 +2499,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F64" s="18">
         <v>358517</v>
@@ -2501,19 +2522,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F65" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G65" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2524,19 +2545,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G66" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2547,13 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
         <v>358517</v>
@@ -2570,19 +2591,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G68" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2593,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
         <v>358517</v>
@@ -2616,19 +2637,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G70" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2639,19 +2660,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F71" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G71" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2662,19 +2683,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G72" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2685,13 +2706,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>358517</v>
@@ -2708,19 +2729,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G74" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2731,19 +2752,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F75" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G75" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2754,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F76" s="18">
         <v>358517</v>
@@ -2777,19 +2798,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F77" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G77" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2800,19 +2821,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F78" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G78" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2823,13 +2844,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F79" s="18">
         <v>358517</v>
@@ -2846,19 +2867,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F80" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G80" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2869,19 +2890,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F81" s="18">
-        <v>51508</v>
+        <v>358517</v>
       </c>
       <c r="G81" s="18">
-        <v>1452317</v>
+        <v>8962915</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2892,13 +2913,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F82" s="18">
         <v>358517</v>
@@ -2915,19 +2936,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F83" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G83" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2938,19 +2959,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F84" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G84" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2961,19 +2982,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F85" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G85" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2984,19 +3005,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F86" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G86" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3007,13 +3028,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="F87" s="18">
         <v>358517</v>
@@ -3030,13 +3051,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F88" s="18">
         <v>358517</v>
@@ -3053,19 +3074,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F89" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G89" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3076,19 +3097,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="F90" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G90" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3099,13 +3120,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F91" s="18">
         <v>358517</v>
@@ -3122,19 +3143,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F92" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G92" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3145,19 +3166,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F93" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G93" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3168,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F94" s="18">
         <v>358517</v>
@@ -3191,19 +3212,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F95" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G95" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3214,19 +3235,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F96" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G96" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3237,19 +3258,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="F97" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G97" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3260,13 +3281,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F98" s="18">
         <v>358517</v>
@@ -3283,19 +3304,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F99" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G99" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3306,19 +3327,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F100" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G100" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3329,13 +3350,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F101" s="18">
         <v>358517</v>
@@ -3352,19 +3373,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F102" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G102" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3375,19 +3396,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="F103" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G103" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3398,13 +3419,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F104" s="18">
         <v>358517</v>
@@ -3421,19 +3442,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F105" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G105" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3444,19 +3465,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="F106" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G106" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3467,13 +3488,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="F107" s="18">
         <v>358517</v>
@@ -3490,19 +3511,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F108" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G108" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3513,19 +3534,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F109" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G109" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3536,19 +3557,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F110" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G110" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3559,13 +3580,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="F111" s="18">
         <v>358517</v>
@@ -3582,19 +3603,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="F112" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G112" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3605,13 +3626,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="F113" s="18">
         <v>358517</v>
@@ -3628,19 +3649,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F114" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G114" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3651,13 +3672,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F115" s="18">
         <v>358517</v>
@@ -3674,19 +3695,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="F116" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G116" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3697,19 +3718,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="F117" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G117" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3720,19 +3741,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="F118" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G118" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3743,19 +3764,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F119" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G119" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3766,13 +3787,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F120" s="18">
         <v>358517</v>
@@ -3789,19 +3810,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F121" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G121" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3812,19 +3833,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="F122" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G122" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3835,13 +3856,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="F123" s="18">
         <v>358517</v>
@@ -3858,13 +3879,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F124" s="18">
         <v>358517</v>
@@ -3881,19 +3902,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F125" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G125" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3904,19 +3925,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F126" s="18">
-        <v>171200</v>
+        <v>2464</v>
       </c>
       <c r="G126" s="18">
-        <v>4280000</v>
+        <v>1847934</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3927,19 +3948,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F127" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G127" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3950,19 +3971,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F128" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G128" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3973,13 +3994,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F129" s="18">
         <v>280000</v>
@@ -3996,19 +4017,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F130" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G130" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4019,19 +4040,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F131" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G131" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4042,13 +4063,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F132" s="18">
         <v>280000</v>
@@ -4065,19 +4086,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="F133" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G133" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4088,19 +4109,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F134" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G134" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4111,13 +4132,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F135" s="18">
         <v>280000</v>
@@ -4134,13 +4155,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F136" s="18">
         <v>280000</v>
@@ -4157,19 +4178,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F137" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G137" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4180,19 +4201,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F138" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G138" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4203,13 +4224,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F139" s="18">
         <v>280000</v>
@@ -4226,19 +4247,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F140" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G140" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4249,19 +4270,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F141" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G141" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4272,19 +4293,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F142" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G142" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4295,19 +4316,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F143" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G143" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4318,13 +4339,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F144" s="18">
         <v>280000</v>
@@ -4341,13 +4362,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F145" s="18">
         <v>280000</v>
@@ -4364,19 +4385,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F146" s="18">
-        <v>99052</v>
+        <v>280000</v>
       </c>
       <c r="G146" s="18">
-        <v>2754659</v>
+        <v>7000000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4387,19 +4408,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F147" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G147" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4410,19 +4431,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F148" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G148" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4433,19 +4454,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F149" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G149" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4456,19 +4477,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F150" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G150" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4479,19 +4500,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F151" s="18">
-        <v>99052</v>
+        <v>280000</v>
       </c>
       <c r="G151" s="18">
-        <v>2754659</v>
+        <v>7000000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4502,13 +4523,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F152" s="18">
         <v>280000</v>
@@ -4525,13 +4546,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F153" s="18">
         <v>280000</v>
@@ -4548,19 +4569,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F154" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G154" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4571,19 +4592,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F155" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G155" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4594,19 +4615,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F156" s="18">
-        <v>99052</v>
+        <v>280000</v>
       </c>
       <c r="G156" s="18">
-        <v>2754659</v>
+        <v>7000000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4617,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F157" s="18">
         <v>280000</v>
@@ -4640,19 +4661,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F158" s="18">
-        <v>99052</v>
+        <v>280000</v>
       </c>
       <c r="G158" s="18">
-        <v>2754659</v>
+        <v>7000000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4663,19 +4684,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F159" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G159" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4686,19 +4707,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F160" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G160" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4709,19 +4730,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F161" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G161" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4732,13 +4753,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F162" s="18">
         <v>280000</v>
@@ -4755,19 +4776,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F163" s="18">
-        <v>99052</v>
+        <v>280000</v>
       </c>
       <c r="G163" s="18">
-        <v>2754659</v>
+        <v>7000000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4778,19 +4799,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F164" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G164" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4801,19 +4822,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F165" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G165" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4824,13 +4845,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F166" s="18">
         <v>280000</v>
@@ -4847,19 +4868,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F167" s="18">
-        <v>99052</v>
+        <v>280000</v>
       </c>
       <c r="G167" s="18">
-        <v>2754659</v>
+        <v>7000000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4870,19 +4891,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F168" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G168" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4893,13 +4914,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F169" s="18">
         <v>280000</v>
@@ -4916,19 +4937,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F170" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G170" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4939,19 +4960,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F171" s="18">
-        <v>99052</v>
+        <v>280000</v>
       </c>
       <c r="G171" s="18">
-        <v>2754659</v>
+        <v>7000000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4962,19 +4983,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F172" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G172" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4985,13 +5006,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F173" s="18">
         <v>280000</v>
@@ -5008,19 +5029,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F174" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G174" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5031,19 +5052,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F175" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G175" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5054,19 +5075,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F176" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G176" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5077,13 +5098,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F177" s="18">
         <v>280000</v>
@@ -5100,19 +5121,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F178" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G178" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5123,13 +5144,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F179" s="18">
         <v>280000</v>
@@ -5146,19 +5167,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F180" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G180" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5169,19 +5190,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F181" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G181" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5192,13 +5213,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F182" s="18">
         <v>280000</v>
@@ -5215,19 +5236,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F183" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G183" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5238,19 +5259,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F184" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G184" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5261,19 +5282,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F185" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G185" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5284,19 +5305,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F186" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G186" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5307,13 +5328,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F187" s="18">
         <v>280000</v>
@@ -5330,19 +5351,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F188" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G188" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5353,13 +5374,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F189" s="18">
         <v>280000</v>
@@ -5376,19 +5397,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F190" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G190" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5399,19 +5420,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F191" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G191" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5422,13 +5443,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F192" s="18">
         <v>280000</v>
@@ -5445,19 +5466,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F193" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G193" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5468,13 +5489,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F194" s="18">
         <v>280000</v>
@@ -5491,19 +5512,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F195" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G195" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5514,19 +5535,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F196" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G196" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5537,19 +5558,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F197" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G197" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5560,13 +5581,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F198" s="18">
         <v>280000</v>
@@ -5583,19 +5604,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F199" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G199" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5606,19 +5627,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F200" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G200" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5629,19 +5650,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F201" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G201" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5652,13 +5673,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F202" s="18">
         <v>280000</v>
@@ -5675,19 +5696,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F203" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G203" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5698,19 +5719,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F204" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G204" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5721,10 +5742,10 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>92</v>
@@ -5744,10 +5765,10 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>93</v>
@@ -5767,19 +5788,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F207" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G207" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5790,19 +5811,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F208" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G208" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5813,13 +5834,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F209" s="18">
         <v>280000</v>
@@ -5836,19 +5857,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F210" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G210" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5859,19 +5880,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F211" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G211" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5882,19 +5903,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F212" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G212" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5905,13 +5926,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F213" s="18">
         <v>280000</v>
@@ -5928,19 +5949,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F214" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G214" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5951,19 +5972,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F215" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G215" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5974,13 +5995,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="F216" s="18">
         <v>171200</v>
@@ -5997,19 +6018,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="F217" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G217" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6020,19 +6041,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="F218" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G218" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6043,19 +6064,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="F219" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G219" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6066,13 +6087,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="F220" s="18">
         <v>171200</v>
@@ -6089,13 +6110,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F221" s="18">
         <v>171200</v>
@@ -6112,19 +6133,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F222" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G222" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6135,19 +6156,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F223" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G223" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6158,19 +6179,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F224" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G224" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6181,19 +6202,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="F225" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G225" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6204,13 +6225,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="F226" s="18">
         <v>171200</v>
@@ -6227,19 +6248,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F227" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G227" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6250,19 +6271,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F228" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G228" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6273,13 +6294,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F229" s="18">
         <v>171200</v>
@@ -6296,13 +6317,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="F230" s="18">
         <v>171200</v>
@@ -6319,19 +6340,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="F231" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G231" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6342,19 +6363,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F232" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G232" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6365,13 +6386,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="F233" s="18">
         <v>171200</v>
@@ -6388,19 +6409,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="F234" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G234" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6411,19 +6432,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="F235" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G235" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6434,19 +6455,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D236" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E236" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E236" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="F236" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G236" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6457,19 +6478,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="F237" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G237" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6480,19 +6501,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="F238" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G238" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6503,13 +6524,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="F239" s="18">
         <v>171200</v>
@@ -6526,19 +6547,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="F240" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G240" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6549,19 +6570,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F241" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G241" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6572,19 +6593,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="F242" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G242" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6595,19 +6616,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="F243" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G243" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6618,13 +6639,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F244" s="18">
         <v>171200</v>
@@ -6641,19 +6662,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="F245" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G245" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6664,19 +6685,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F246" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G246" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6687,13 +6708,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F247" s="18">
         <v>171200</v>
@@ -6710,19 +6731,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="F248" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G248" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6733,19 +6754,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F249" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G249" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6756,19 +6777,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="F250" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G250" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6779,19 +6800,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="F251" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G251" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6802,13 +6823,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="F252" s="18">
         <v>171200</v>
@@ -6825,19 +6846,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F253" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G253" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6848,19 +6869,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="F254" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G254" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6871,13 +6892,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F255" s="18">
         <v>171200</v>
@@ -6894,19 +6915,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="F256" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G256" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6917,19 +6938,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="F257" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G257" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6940,19 +6961,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="F258" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G258" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6963,19 +6984,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F259" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G259" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6986,13 +7007,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="F260" s="18">
         <v>171200</v>
@@ -7009,19 +7030,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="F261" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G261" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7032,19 +7053,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F262" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G262" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7055,13 +7076,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="F263" s="18">
         <v>171200</v>
@@ -7078,19 +7099,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F264" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G264" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7101,13 +7122,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F265" s="18">
         <v>171200</v>
@@ -7124,19 +7145,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F266" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G266" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7147,19 +7168,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F267" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G267" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7170,19 +7191,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F268" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G268" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7193,19 +7214,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="F269" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G269" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7216,13 +7237,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F270" s="18">
         <v>171200</v>
@@ -7239,19 +7260,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="F271" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G271" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7262,19 +7283,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="F272" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G272" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7285,19 +7306,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="F273" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G273" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7308,19 +7329,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="F274" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G274" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7331,13 +7352,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F275" s="18">
         <v>171200</v>
@@ -7354,19 +7375,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="F276" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G276" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7377,19 +7398,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="F277" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G277" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7400,13 +7421,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="F278" s="18">
         <v>171200</v>
@@ -7423,19 +7444,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F279" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G279" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7446,19 +7467,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F280" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G280" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7469,13 +7490,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="F281" s="18">
         <v>171200</v>
@@ -7492,19 +7513,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="F282" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G282" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7515,19 +7536,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F283" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G283" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7538,19 +7559,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="F284" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G284" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7561,19 +7582,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F285" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G285" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7584,19 +7605,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F286" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G286" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7607,19 +7628,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F287" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G287" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7630,13 +7651,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F288" s="18">
         <v>171200</v>
@@ -7653,19 +7674,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F289" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G289" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7676,13 +7697,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F290" s="18">
         <v>171200</v>
@@ -7699,19 +7720,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F291" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G291" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7722,19 +7743,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="F292" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G292" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7745,13 +7766,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F293" s="18">
         <v>171200</v>
@@ -7768,19 +7789,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F294" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G294" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7791,19 +7812,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F295" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G295" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7814,19 +7835,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F296" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G296" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7837,13 +7858,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F297" s="18">
         <v>171200</v>
@@ -7860,19 +7881,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F298" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G298" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7883,19 +7904,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F299" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G299" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7906,19 +7927,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="F300" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G300" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7929,19 +7950,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F301" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G301" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7952,13 +7973,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F302" s="18">
         <v>171200</v>
@@ -7975,19 +7996,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F303" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G303" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7998,19 +8019,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F304" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G304" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8021,13 +8042,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F305" s="18">
         <v>171200</v>
@@ -8044,19 +8065,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D306" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E306" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E306" s="16" t="s">
-        <v>122</v>
-      </c>
       <c r="F306" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G306" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8067,19 +8088,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F307" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G307" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8090,19 +8111,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F308" s="18">
-        <v>120000</v>
+        <v>171200</v>
       </c>
       <c r="G308" s="18">
-        <v>3000000</v>
+        <v>4280000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8113,19 +8134,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F309" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G309" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8136,19 +8157,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F310" s="18">
-        <v>120000</v>
+        <v>51508</v>
       </c>
       <c r="G310" s="18">
-        <v>3000000</v>
+        <v>1452317</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8159,19 +8180,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="F311" s="18">
-        <v>280000</v>
+        <v>99052</v>
       </c>
       <c r="G311" s="18">
-        <v>7000000</v>
+        <v>2754659</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8182,19 +8203,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="F312" s="18">
-        <v>52000</v>
+        <v>99052</v>
       </c>
       <c r="G312" s="18">
-        <v>1300000</v>
+        <v>2754659</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8205,19 +8226,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="F313" s="18">
-        <v>358517</v>
+        <v>99052</v>
       </c>
       <c r="G313" s="18">
-        <v>8962915</v>
+        <v>2754659</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8228,19 +8249,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="F314" s="18">
-        <v>171200</v>
+        <v>99052</v>
       </c>
       <c r="G314" s="18">
-        <v>4280000</v>
+        <v>2754659</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8251,19 +8272,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="F315" s="18">
-        <v>280000</v>
+        <v>99052</v>
       </c>
       <c r="G315" s="18">
-        <v>7000000</v>
+        <v>2754659</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8274,19 +8295,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="F316" s="18">
-        <v>358517</v>
+        <v>99052</v>
       </c>
       <c r="G316" s="18">
-        <v>8962915</v>
+        <v>2754659</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8297,19 +8318,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="F317" s="18">
-        <v>171200</v>
+        <v>99052</v>
       </c>
       <c r="G317" s="18">
-        <v>4280000</v>
+        <v>2754659</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8320,13 +8341,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="F318" s="18">
         <v>52000</v>
@@ -8343,19 +8364,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="F319" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G319" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8366,19 +8387,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="F320" s="18">
-        <v>120000</v>
+        <v>52000</v>
       </c>
       <c r="G320" s="18">
-        <v>3000000</v>
+        <v>1300000</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8389,19 +8410,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="F321" s="18">
-        <v>280000</v>
+        <v>52000</v>
       </c>
       <c r="G321" s="18">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8412,19 +8433,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="F322" s="18">
-        <v>358517</v>
+        <v>52000</v>
       </c>
       <c r="G322" s="18">
-        <v>8962915</v>
+        <v>1300000</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8435,13 +8456,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="F323" s="18">
         <v>52000</v>
@@ -8458,13 +8479,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="F324" s="18">
         <v>52000</v>
@@ -8481,19 +8502,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="F325" s="18">
-        <v>358517</v>
+        <v>52000</v>
       </c>
       <c r="G325" s="18">
-        <v>8962915</v>
+        <v>1300000</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8504,19 +8525,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="F326" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G326" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8527,19 +8548,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F327" s="18">
-        <v>2464</v>
+        <v>52000</v>
       </c>
       <c r="G327" s="18">
-        <v>1847934</v>
+        <v>1300000</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8550,19 +8571,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="F328" s="18">
-        <v>280000</v>
+        <v>52000</v>
       </c>
       <c r="G328" s="18">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8573,13 +8594,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="F329" s="18">
         <v>52000</v>
@@ -8596,19 +8617,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="F330" s="18">
-        <v>358517</v>
+        <v>52000</v>
       </c>
       <c r="G330" s="18">
-        <v>8962915</v>
+        <v>1300000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8619,19 +8640,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="F331" s="18">
-        <v>280000</v>
+        <v>52000</v>
       </c>
       <c r="G331" s="18">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8642,19 +8663,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F332" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G332" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8665,13 +8686,13 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="F333" s="18">
         <v>52000</v>
@@ -8688,19 +8709,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="F334" s="18">
-        <v>280000</v>
+        <v>52000</v>
       </c>
       <c r="G334" s="18">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8711,19 +8732,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="F335" s="18">
-        <v>358517</v>
+        <v>52000</v>
       </c>
       <c r="G335" s="18">
-        <v>8962915</v>
+        <v>1300000</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8734,19 +8755,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F336" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G336" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8757,13 +8778,13 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="F337" s="18">
         <v>52000</v>
@@ -8780,19 +8801,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="F338" s="18">
-        <v>358517</v>
+        <v>52000</v>
       </c>
       <c r="G338" s="18">
-        <v>8962915</v>
+        <v>1300000</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8803,19 +8824,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D339" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E339" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E339" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="F339" s="18">
-        <v>280000</v>
+        <v>52000</v>
       </c>
       <c r="G339" s="18">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8826,19 +8847,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="F340" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G340" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8849,13 +8870,13 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="F341" s="18">
         <v>52000</v>
@@ -8872,19 +8893,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="F342" s="18">
-        <v>358517</v>
+        <v>52000</v>
       </c>
       <c r="G342" s="18">
-        <v>8962915</v>
+        <v>1300000</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8895,75 +8916,1064 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="F343" s="18">
-        <v>280000</v>
+        <v>52000</v>
       </c>
       <c r="G343" s="18">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
       <c r="J343" s="20"/>
     </row>
     <row r="344" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B344" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C344" s="22" t="s">
+      <c r="B344" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D344" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E344" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F344" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G344" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H344" s="19"/>
+      <c r="I344" s="19"/>
+      <c r="J344" s="20"/>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B345" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D345" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E345" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F345" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G345" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H345" s="19"/>
+      <c r="I345" s="19"/>
+      <c r="J345" s="20"/>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B346" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D346" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F346" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G346" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H346" s="19"/>
+      <c r="I346" s="19"/>
+      <c r="J346" s="20"/>
+    </row>
+    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B347" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D347" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E347" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F347" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G347" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H347" s="19"/>
+      <c r="I347" s="19"/>
+      <c r="J347" s="20"/>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B348" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D348" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E348" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F348" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G348" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H348" s="19"/>
+      <c r="I348" s="19"/>
+      <c r="J348" s="20"/>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B349" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C349" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D349" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E349" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F349" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G349" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H349" s="19"/>
+      <c r="I349" s="19"/>
+      <c r="J349" s="20"/>
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B350" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D350" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E350" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F350" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G350" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H350" s="19"/>
+      <c r="I350" s="19"/>
+      <c r="J350" s="20"/>
+    </row>
+    <row r="351" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B351" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D351" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E351" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F351" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G351" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H351" s="19"/>
+      <c r="I351" s="19"/>
+      <c r="J351" s="20"/>
+    </row>
+    <row r="352" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B352" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D352" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E352" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F352" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G352" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H352" s="19"/>
+      <c r="I352" s="19"/>
+      <c r="J352" s="20"/>
+    </row>
+    <row r="353" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B353" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C353" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D353" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E353" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F353" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G353" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H353" s="19"/>
+      <c r="I353" s="19"/>
+      <c r="J353" s="20"/>
+    </row>
+    <row r="354" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B354" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D354" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E354" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F354" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G354" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H354" s="19"/>
+      <c r="I354" s="19"/>
+      <c r="J354" s="20"/>
+    </row>
+    <row r="355" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B355" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D355" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E355" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F355" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G355" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H355" s="19"/>
+      <c r="I355" s="19"/>
+      <c r="J355" s="20"/>
+    </row>
+    <row r="356" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B356" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D356" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E356" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F356" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G356" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H356" s="19"/>
+      <c r="I356" s="19"/>
+      <c r="J356" s="20"/>
+    </row>
+    <row r="357" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B357" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D357" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E357" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F357" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G357" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H357" s="19"/>
+      <c r="I357" s="19"/>
+      <c r="J357" s="20"/>
+    </row>
+    <row r="358" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B358" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D358" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E358" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D344" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E344" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F344" s="24">
-        <v>171200</v>
-      </c>
-      <c r="G344" s="24">
-        <v>4280000</v>
-      </c>
-      <c r="H344" s="25"/>
-      <c r="I344" s="25"/>
-      <c r="J344" s="26"/>
-    </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B349" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C349" s="32"/>
-      <c r="H349" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
-    </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B350" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C350" s="32"/>
-      <c r="H350" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I350" s="1"/>
-      <c r="J350" s="1"/>
+      <c r="F358" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G358" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H358" s="19"/>
+      <c r="I358" s="19"/>
+      <c r="J358" s="20"/>
+    </row>
+    <row r="359" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B359" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D359" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E359" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F359" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G359" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H359" s="19"/>
+      <c r="I359" s="19"/>
+      <c r="J359" s="20"/>
+    </row>
+    <row r="360" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B360" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D360" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E360" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F360" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G360" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H360" s="19"/>
+      <c r="I360" s="19"/>
+      <c r="J360" s="20"/>
+    </row>
+    <row r="361" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B361" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D361" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E361" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F361" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G361" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H361" s="19"/>
+      <c r="I361" s="19"/>
+      <c r="J361" s="20"/>
+    </row>
+    <row r="362" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B362" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D362" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E362" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F362" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G362" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H362" s="19"/>
+      <c r="I362" s="19"/>
+      <c r="J362" s="20"/>
+    </row>
+    <row r="363" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B363" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D363" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E363" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F363" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G363" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H363" s="19"/>
+      <c r="I363" s="19"/>
+      <c r="J363" s="20"/>
+    </row>
+    <row r="364" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B364" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D364" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E364" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F364" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G364" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H364" s="19"/>
+      <c r="I364" s="19"/>
+      <c r="J364" s="20"/>
+    </row>
+    <row r="365" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B365" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D365" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E365" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F365" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G365" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H365" s="19"/>
+      <c r="I365" s="19"/>
+      <c r="J365" s="20"/>
+    </row>
+    <row r="366" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B366" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D366" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E366" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F366" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G366" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H366" s="19"/>
+      <c r="I366" s="19"/>
+      <c r="J366" s="20"/>
+    </row>
+    <row r="367" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B367" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D367" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E367" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F367" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G367" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H367" s="19"/>
+      <c r="I367" s="19"/>
+      <c r="J367" s="20"/>
+    </row>
+    <row r="368" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B368" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D368" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E368" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F368" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G368" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H368" s="19"/>
+      <c r="I368" s="19"/>
+      <c r="J368" s="20"/>
+    </row>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B369" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D369" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E369" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F369" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G369" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H369" s="19"/>
+      <c r="I369" s="19"/>
+      <c r="J369" s="20"/>
+    </row>
+    <row r="370" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B370" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D370" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E370" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F370" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G370" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H370" s="19"/>
+      <c r="I370" s="19"/>
+      <c r="J370" s="20"/>
+    </row>
+    <row r="371" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B371" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D371" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E371" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F371" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G371" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H371" s="19"/>
+      <c r="I371" s="19"/>
+      <c r="J371" s="20"/>
+    </row>
+    <row r="372" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B372" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D372" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E372" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F372" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G372" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H372" s="19"/>
+      <c r="I372" s="19"/>
+      <c r="J372" s="20"/>
+    </row>
+    <row r="373" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B373" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D373" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E373" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F373" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G373" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H373" s="19"/>
+      <c r="I373" s="19"/>
+      <c r="J373" s="20"/>
+    </row>
+    <row r="374" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B374" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D374" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E374" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F374" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G374" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H374" s="19"/>
+      <c r="I374" s="19"/>
+      <c r="J374" s="20"/>
+    </row>
+    <row r="375" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B375" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D375" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E375" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F375" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G375" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H375" s="19"/>
+      <c r="I375" s="19"/>
+      <c r="J375" s="20"/>
+    </row>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B376" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D376" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E376" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F376" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G376" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H376" s="19"/>
+      <c r="I376" s="19"/>
+      <c r="J376" s="20"/>
+    </row>
+    <row r="377" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B377" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D377" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E377" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F377" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G377" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H377" s="19"/>
+      <c r="I377" s="19"/>
+      <c r="J377" s="20"/>
+    </row>
+    <row r="378" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B378" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D378" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E378" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F378" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G378" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H378" s="19"/>
+      <c r="I378" s="19"/>
+      <c r="J378" s="20"/>
+    </row>
+    <row r="379" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B379" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D379" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E379" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F379" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G379" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H379" s="19"/>
+      <c r="I379" s="19"/>
+      <c r="J379" s="20"/>
+    </row>
+    <row r="380" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B380" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D380" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E380" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F380" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G380" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H380" s="19"/>
+      <c r="I380" s="19"/>
+      <c r="J380" s="20"/>
+    </row>
+    <row r="381" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B381" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D381" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E381" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F381" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G381" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H381" s="19"/>
+      <c r="I381" s="19"/>
+      <c r="J381" s="20"/>
+    </row>
+    <row r="382" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B382" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D382" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E382" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F382" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G382" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H382" s="19"/>
+      <c r="I382" s="19"/>
+      <c r="J382" s="20"/>
+    </row>
+    <row r="383" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B383" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C383" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D383" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E383" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F383" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G383" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H383" s="19"/>
+      <c r="I383" s="19"/>
+      <c r="J383" s="20"/>
+    </row>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B384" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C384" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D384" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E384" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F384" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G384" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H384" s="19"/>
+      <c r="I384" s="19"/>
+      <c r="J384" s="20"/>
+    </row>
+    <row r="385" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B385" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D385" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E385" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F385" s="18">
+        <v>120000</v>
+      </c>
+      <c r="G385" s="18">
+        <v>3000000</v>
+      </c>
+      <c r="H385" s="19"/>
+      <c r="I385" s="19"/>
+      <c r="J385" s="20"/>
+    </row>
+    <row r="386" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B386" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D386" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E386" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F386" s="18">
+        <v>120000</v>
+      </c>
+      <c r="G386" s="18">
+        <v>3000000</v>
+      </c>
+      <c r="H386" s="19"/>
+      <c r="I386" s="19"/>
+      <c r="J386" s="20"/>
+    </row>
+    <row r="387" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B387" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D387" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E387" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F387" s="24">
+        <v>120000</v>
+      </c>
+      <c r="G387" s="24">
+        <v>3000000</v>
+      </c>
+      <c r="H387" s="25"/>
+      <c r="I387" s="25"/>
+      <c r="J387" s="26"/>
+    </row>
+    <row r="392" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B392" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C392" s="32"/>
+      <c r="H392" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+    </row>
+    <row r="393" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B393" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C393" s="32"/>
+      <c r="H393" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="H350:J350"/>
-    <mergeCell ref="H349:J349"/>
+    <mergeCell ref="B393:C393"/>
+    <mergeCell ref="B392:C392"/>
+    <mergeCell ref="H393:J393"/>
+    <mergeCell ref="H392:J392"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9001141225.xlsx
+++ b/Data/EC/NIT-9001141225.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A433371E-58A4-4F7B-96FD-27861EAFB3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A3D600-CAEB-40B6-99DA-473D6472DFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CD59D623-88E6-4331-93BC-910760F8FFD6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E9A8D2C-43E1-413E-B351-D57D23C3938B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="148">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,93 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8569413</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS GOMEZ FERRER</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>72257978</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS VILLAMIZAR HERRERA</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>8852482</t>
+  </si>
+  <si>
+    <t>ARNOLDO HERNANDEZ DORADO</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>9155430</t>
   </si>
   <si>
@@ -74,394 +161,292 @@
     <t>1806</t>
   </si>
   <si>
-    <t>8569413</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS GOMEZ FERRER</t>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1067717554</t>
+  </si>
+  <si>
+    <t>RAUL DAZA CAMACHO</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>88260296</t>
+  </si>
+  <si>
+    <t>RODGER ALAIN ARIAS GIRALDO</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>1002275439</t>
+  </si>
+  <si>
+    <t>YIRA LUZ SIMARRA FERIA</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>1131111185</t>
+  </si>
+  <si>
+    <t>VICTOR ALFONSO PALMA PADILLA</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1007591588</t>
+  </si>
+  <si>
+    <t>BRAYAN ANDRES THERAN CUADRADO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1007591588</t>
-  </si>
-  <si>
-    <t>BRAYAN ANDRES THERAN CUADRADO</t>
-  </si>
-  <si>
-    <t>8852482</t>
-  </si>
-  <si>
-    <t>ARNOLDO HERNANDEZ DORADO</t>
-  </si>
-  <si>
-    <t>72257978</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS VILLAMIZAR HERRERA</t>
-  </si>
-  <si>
-    <t>1067717554</t>
-  </si>
-  <si>
-    <t>RAUL DAZA CAMACHO</t>
-  </si>
-  <si>
-    <t>88260296</t>
-  </si>
-  <si>
-    <t>RODGER ALAIN ARIAS GIRALDO</t>
-  </si>
-  <si>
-    <t>1002275439</t>
-  </si>
-  <si>
-    <t>YIRA LUZ SIMARRA FERIA</t>
-  </si>
-  <si>
-    <t>9173320</t>
-  </si>
-  <si>
-    <t>EZEQUIEL ANTONIO HERNANDEZ MENDOZA</t>
-  </si>
-  <si>
-    <t>1052087214</t>
-  </si>
-  <si>
-    <t>HECTOR MANUEL VILLEGAS MARQUEZ</t>
-  </si>
-  <si>
-    <t>73548696</t>
-  </si>
-  <si>
-    <t>AQUILINO RAFAEL HERNANDEZ MENDOZA</t>
-  </si>
-  <si>
-    <t>1131111185</t>
-  </si>
-  <si>
-    <t>VICTOR ALFONSO PALMA PADILLA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -560,7 +545,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -573,9 +560,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -775,23 +760,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,10 +804,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,7 +860,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00442794-5E96-CA7A-DA20-C1429CD83533}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998871D0-8E56-3FFB-B5FD-2E735BBFD89E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,8 +1211,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C557D568-1E70-4DA5-8519-89F6986D3C6F}">
-  <dimension ref="B2:J393"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20F5724-C752-4EA3-81EA-393774D5D5DE}">
+  <dimension ref="B2:J358"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1238,7 +1223,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1251,7 +1236,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1296,7 +1281,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1328,12 +1313,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>84585147</v>
+        <v>83418864</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1344,17 +1329,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1381,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1404,10 +1389,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>11458</v>
+        <v>358517</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>8962915</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1418,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>358517</v>
@@ -1441,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>358517</v>
@@ -1464,13 +1449,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>358517</v>
@@ -1487,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>358517</v>
@@ -1510,13 +1495,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>358517</v>
@@ -1533,13 +1518,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>358517</v>
@@ -1556,13 +1541,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>358517</v>
@@ -1579,13 +1564,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>358517</v>
@@ -1602,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>358517</v>
@@ -1625,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>358517</v>
@@ -1648,13 +1633,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>358517</v>
@@ -1671,13 +1656,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>358517</v>
@@ -1694,13 +1679,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>358517</v>
@@ -1717,13 +1702,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>358517</v>
@@ -1740,19 +1725,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G31" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1763,13 +1748,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>358517</v>
@@ -1786,19 +1771,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G33" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1809,13 +1794,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>358517</v>
@@ -1832,19 +1817,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G35" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1855,13 +1840,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
         <v>358517</v>
@@ -1878,19 +1863,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G37" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1901,13 +1886,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
         <v>358517</v>
@@ -1924,19 +1909,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F39" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G39" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1947,13 +1932,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
         <v>358517</v>
@@ -1970,19 +1955,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G41" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1993,13 +1978,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
         <v>358517</v>
@@ -2016,19 +2001,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G43" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2039,13 +2024,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F44" s="18">
         <v>358517</v>
@@ -2062,19 +2047,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F45" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G45" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2085,19 +2070,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F46" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G46" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2108,13 +2093,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F47" s="18">
         <v>358517</v>
@@ -2131,19 +2116,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F48" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G48" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2154,19 +2139,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F49" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G49" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2177,19 +2162,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F50" s="18">
-        <v>358517</v>
+        <v>11458</v>
       </c>
       <c r="G50" s="18">
-        <v>8962915</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2200,13 +2185,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F51" s="18">
         <v>358517</v>
@@ -2223,19 +2208,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F52" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G52" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2246,19 +2231,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F53" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G53" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2269,13 +2254,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F54" s="18">
         <v>358517</v>
@@ -2292,19 +2277,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F55" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G55" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2315,19 +2300,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F56" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G56" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2338,13 +2323,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F57" s="18">
         <v>358517</v>
@@ -2361,19 +2346,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F58" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G58" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2384,19 +2369,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F59" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G59" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2407,13 +2392,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F60" s="18">
         <v>358517</v>
@@ -2430,19 +2415,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G61" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2453,19 +2438,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F62" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G62" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2476,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F63" s="18">
         <v>358517</v>
@@ -2499,19 +2484,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F64" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G64" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2522,19 +2507,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F65" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G65" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2545,13 +2530,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F66" s="18">
         <v>358517</v>
@@ -2568,19 +2553,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F67" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G67" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2591,19 +2576,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F68" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G68" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2614,13 +2599,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F69" s="18">
         <v>358517</v>
@@ -2637,19 +2622,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F70" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G70" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2660,19 +2645,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F71" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G71" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2683,13 +2668,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F72" s="18">
         <v>358517</v>
@@ -2706,19 +2691,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F73" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G73" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2729,19 +2714,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F74" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G74" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2752,13 +2737,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F75" s="18">
         <v>358517</v>
@@ -2775,19 +2760,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F76" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G76" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2798,19 +2783,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F77" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G77" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2821,13 +2806,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F78" s="18">
         <v>358517</v>
@@ -2844,19 +2829,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F79" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G79" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2867,19 +2852,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F80" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G80" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2890,13 +2875,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F81" s="18">
         <v>358517</v>
@@ -2913,19 +2898,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F82" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G82" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2936,19 +2921,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F83" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G83" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2959,19 +2944,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="F84" s="18">
-        <v>358517</v>
+        <v>51508</v>
       </c>
       <c r="G84" s="18">
-        <v>8962915</v>
+        <v>1452317</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2982,13 +2967,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F85" s="18">
         <v>358517</v>
@@ -3005,19 +2990,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F86" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G86" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3028,19 +3013,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F87" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G87" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3051,13 +3036,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F88" s="18">
         <v>358517</v>
@@ -3074,19 +3059,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F89" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G89" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3097,19 +3082,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="F90" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G90" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3120,13 +3105,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="F91" s="18">
         <v>358517</v>
@@ -3143,19 +3128,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F92" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G92" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3166,19 +3151,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F93" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G93" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3189,13 +3174,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F94" s="18">
         <v>358517</v>
@@ -3212,19 +3197,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F95" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G95" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3235,19 +3220,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F96" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G96" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3258,13 +3243,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="F97" s="18">
         <v>358517</v>
@@ -3281,19 +3266,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F98" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G98" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3304,19 +3289,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F99" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G99" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3327,13 +3312,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F100" s="18">
         <v>358517</v>
@@ -3350,19 +3335,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="F101" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G101" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3373,19 +3358,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F102" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G102" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3396,13 +3381,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="F103" s="18">
         <v>358517</v>
@@ -3419,19 +3404,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F104" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G104" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3442,19 +3427,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F105" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G105" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3465,13 +3450,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="F106" s="18">
         <v>358517</v>
@@ -3488,19 +3473,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="F107" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G107" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3511,19 +3496,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F108" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G108" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3534,13 +3519,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F109" s="18">
         <v>358517</v>
@@ -3557,19 +3542,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F110" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G110" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3580,19 +3565,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="F111" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G111" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3603,13 +3588,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F112" s="18">
         <v>358517</v>
@@ -3626,19 +3611,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="F113" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G113" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3649,19 +3634,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="F114" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G114" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3672,13 +3657,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F115" s="18">
         <v>358517</v>
@@ -3695,19 +3680,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="F116" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G116" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3718,19 +3703,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="F117" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G117" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3741,13 +3726,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="F118" s="18">
         <v>358517</v>
@@ -3764,19 +3749,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="F119" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G119" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3787,19 +3772,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="F120" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G120" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3810,13 +3795,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F121" s="18">
         <v>358517</v>
@@ -3833,19 +3818,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="F122" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G122" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3856,19 +3841,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="F123" s="18">
-        <v>358517</v>
+        <v>171200</v>
       </c>
       <c r="G123" s="18">
-        <v>8962915</v>
+        <v>4280000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3879,13 +3864,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F124" s="18">
         <v>358517</v>
@@ -3902,19 +3887,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F125" s="18">
-        <v>358517</v>
+        <v>280000</v>
       </c>
       <c r="G125" s="18">
-        <v>8962915</v>
+        <v>7000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3925,19 +3910,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F126" s="18">
-        <v>2464</v>
+        <v>171200</v>
       </c>
       <c r="G126" s="18">
-        <v>1847934</v>
+        <v>4280000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3948,19 +3933,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F127" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G127" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3971,13 +3956,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F128" s="18">
         <v>280000</v>
@@ -3994,19 +3979,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F129" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G129" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4017,19 +4002,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F130" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G130" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4040,13 +4025,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F131" s="18">
         <v>280000</v>
@@ -4063,19 +4048,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F132" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G132" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4086,19 +4071,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="F133" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G133" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4109,13 +4094,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F134" s="18">
         <v>280000</v>
@@ -4132,19 +4117,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F135" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G135" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4155,19 +4140,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F136" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G136" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4178,13 +4163,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F137" s="18">
         <v>280000</v>
@@ -4201,19 +4186,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F138" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G138" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4224,19 +4209,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F139" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G139" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4247,13 +4232,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F140" s="18">
         <v>280000</v>
@@ -4270,19 +4255,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F141" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G141" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4293,19 +4278,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F142" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G142" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4316,13 +4301,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F143" s="18">
         <v>280000</v>
@@ -4339,19 +4324,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F144" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G144" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4362,19 +4347,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F145" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G145" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4385,13 +4370,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F146" s="18">
         <v>280000</v>
@@ -4408,19 +4393,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F147" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G147" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4431,19 +4416,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F148" s="18">
-        <v>280000</v>
+        <v>99052</v>
       </c>
       <c r="G148" s="18">
-        <v>7000000</v>
+        <v>2754659</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4454,19 +4439,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F149" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G149" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4477,13 +4462,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F150" s="18">
         <v>280000</v>
@@ -4500,19 +4485,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F151" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G151" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4523,19 +4508,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F152" s="18">
-        <v>280000</v>
+        <v>99052</v>
       </c>
       <c r="G152" s="18">
-        <v>7000000</v>
+        <v>2754659</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4546,19 +4531,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F153" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G153" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4569,13 +4554,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F154" s="18">
         <v>280000</v>
@@ -4592,19 +4577,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F155" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G155" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4615,19 +4600,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F156" s="18">
-        <v>280000</v>
+        <v>99052</v>
       </c>
       <c r="G156" s="18">
-        <v>7000000</v>
+        <v>2754659</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4638,19 +4623,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F157" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G157" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4661,13 +4646,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F158" s="18">
         <v>280000</v>
@@ -4684,19 +4669,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F159" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G159" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4707,19 +4692,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F160" s="18">
-        <v>280000</v>
+        <v>99052</v>
       </c>
       <c r="G160" s="18">
-        <v>7000000</v>
+        <v>2754659</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4730,19 +4715,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F161" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G161" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4753,13 +4738,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F162" s="18">
         <v>280000</v>
@@ -4776,19 +4761,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="F163" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G163" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4799,19 +4784,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F164" s="18">
-        <v>280000</v>
+        <v>99052</v>
       </c>
       <c r="G164" s="18">
-        <v>7000000</v>
+        <v>2754659</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4822,19 +4807,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F165" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G165" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4845,13 +4830,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F166" s="18">
         <v>280000</v>
@@ -4868,19 +4853,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F167" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G167" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4891,19 +4876,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F168" s="18">
-        <v>280000</v>
+        <v>99052</v>
       </c>
       <c r="G168" s="18">
-        <v>7000000</v>
+        <v>2754659</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4914,19 +4899,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F169" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G169" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4937,13 +4922,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F170" s="18">
         <v>280000</v>
@@ -4960,19 +4945,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F171" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G171" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4983,19 +4968,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F172" s="18">
-        <v>280000</v>
+        <v>99052</v>
       </c>
       <c r="G172" s="18">
-        <v>7000000</v>
+        <v>2754659</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -5006,19 +4991,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F173" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G173" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5029,13 +5014,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F174" s="18">
         <v>280000</v>
@@ -5052,19 +5037,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F175" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G175" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5075,19 +5060,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F176" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G176" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5098,13 +5083,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F177" s="18">
         <v>280000</v>
@@ -5121,19 +5106,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F178" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G178" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5144,19 +5129,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F179" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G179" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5167,13 +5152,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F180" s="18">
         <v>280000</v>
@@ -5190,19 +5175,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F181" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G181" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5213,19 +5198,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F182" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G182" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5236,13 +5221,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F183" s="18">
         <v>280000</v>
@@ -5259,19 +5244,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F184" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G184" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5282,19 +5267,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F185" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G185" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5305,13 +5290,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F186" s="18">
         <v>280000</v>
@@ -5328,19 +5313,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F187" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G187" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5351,19 +5336,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F188" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G188" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5374,13 +5359,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F189" s="18">
         <v>280000</v>
@@ -5397,19 +5382,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F190" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G190" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5420,19 +5405,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F191" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G191" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5443,13 +5428,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F192" s="18">
         <v>280000</v>
@@ -5466,19 +5451,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F193" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G193" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5489,19 +5474,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F194" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G194" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5512,13 +5497,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F195" s="18">
         <v>280000</v>
@@ -5535,19 +5520,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F196" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G196" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5558,19 +5543,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F197" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G197" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5581,13 +5566,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F198" s="18">
         <v>280000</v>
@@ -5604,19 +5589,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F199" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G199" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5627,19 +5612,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F200" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G200" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5650,13 +5635,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F201" s="18">
         <v>280000</v>
@@ -5673,19 +5658,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F202" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G202" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5696,19 +5681,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F203" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G203" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5719,13 +5704,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F204" s="18">
         <v>280000</v>
@@ -5742,19 +5727,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>92</v>
       </c>
       <c r="F205" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G205" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5765,19 +5750,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>93</v>
       </c>
       <c r="F206" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G206" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5788,13 +5773,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F207" s="18">
         <v>280000</v>
@@ -5811,19 +5796,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F208" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G208" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5834,19 +5819,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F209" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G209" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5857,13 +5842,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F210" s="18">
         <v>280000</v>
@@ -5880,19 +5865,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F211" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G211" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5903,19 +5888,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F212" s="18">
-        <v>280000</v>
+        <v>358517</v>
       </c>
       <c r="G212" s="18">
-        <v>7000000</v>
+        <v>8962915</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5926,13 +5911,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F213" s="18">
         <v>280000</v>
@@ -5949,19 +5934,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F214" s="18">
-        <v>280000</v>
+        <v>171200</v>
       </c>
       <c r="G214" s="18">
-        <v>7000000</v>
+        <v>4280000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5972,19 +5957,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F215" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G215" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5995,19 +5980,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="F216" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G216" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -6018,13 +6003,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F217" s="18">
         <v>171200</v>
@@ -6041,19 +6026,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F218" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G218" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6064,19 +6049,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F219" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G219" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6087,13 +6072,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="F220" s="18">
         <v>171200</v>
@@ -6110,19 +6095,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F221" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G221" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6133,19 +6118,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F222" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G222" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6156,13 +6141,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F223" s="18">
         <v>171200</v>
@@ -6179,19 +6164,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="F224" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G224" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6202,19 +6187,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F225" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G225" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6225,13 +6210,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F226" s="18">
         <v>171200</v>
@@ -6248,19 +6233,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="F227" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G227" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6271,19 +6256,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F228" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G228" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6294,13 +6279,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F229" s="18">
         <v>171200</v>
@@ -6317,19 +6302,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F230" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G230" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6340,19 +6325,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="F231" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G231" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6363,13 +6348,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="F232" s="18">
         <v>171200</v>
@@ -6386,19 +6371,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="F233" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G233" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6409,19 +6394,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="F234" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G234" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6432,13 +6417,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F235" s="18">
         <v>171200</v>
@@ -6455,19 +6440,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F236" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G236" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6478,19 +6463,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="F237" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G237" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6501,19 +6486,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F238" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G238" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6524,13 +6509,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F239" s="18">
         <v>171200</v>
@@ -6547,19 +6532,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F240" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G240" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6570,19 +6555,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F241" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G241" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6593,19 +6578,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="F242" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G242" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6616,13 +6601,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="F243" s="18">
         <v>171200</v>
@@ -6639,19 +6624,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F244" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G244" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6662,19 +6647,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="F245" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G245" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6685,19 +6670,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F246" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G246" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6708,13 +6693,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F247" s="18">
         <v>171200</v>
@@ -6731,19 +6716,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F248" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G248" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6754,19 +6739,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F249" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G249" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6777,19 +6762,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F250" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G250" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6800,13 +6785,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F251" s="18">
         <v>171200</v>
@@ -6823,19 +6808,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F252" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G252" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6846,19 +6831,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F253" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G253" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6869,19 +6854,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F254" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G254" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6892,13 +6877,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F255" s="18">
         <v>171200</v>
@@ -6915,19 +6900,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F256" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G256" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6938,19 +6923,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F257" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G257" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6961,19 +6946,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="F258" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G258" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6984,13 +6969,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F259" s="18">
         <v>171200</v>
@@ -7007,19 +6992,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="F260" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G260" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -7030,19 +7015,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F261" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G261" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7053,19 +7038,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F262" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G262" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7076,13 +7061,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="F263" s="18">
         <v>171200</v>
@@ -7099,19 +7084,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F264" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G264" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7122,19 +7107,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F265" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G265" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7145,19 +7130,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F266" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G266" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7168,13 +7153,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="F267" s="18">
         <v>171200</v>
@@ -7191,19 +7176,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F268" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G268" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7214,19 +7199,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F269" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G269" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7237,19 +7222,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F270" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G270" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7260,13 +7245,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F271" s="18">
         <v>171200</v>
@@ -7283,19 +7268,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F272" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G272" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7306,19 +7291,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="F273" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G273" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7329,19 +7314,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F274" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G274" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7352,13 +7337,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F275" s="18">
         <v>171200</v>
@@ -7375,19 +7360,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F276" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G276" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7398,19 +7383,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F277" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G277" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7421,19 +7406,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="F278" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G278" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7444,13 +7429,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F279" s="18">
         <v>171200</v>
@@ -7467,19 +7452,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F280" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G280" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7490,19 +7475,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F281" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G281" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7513,19 +7498,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="F282" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G282" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7536,13 +7521,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="F283" s="18">
         <v>171200</v>
@@ -7559,19 +7544,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="F284" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G284" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7582,19 +7567,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F285" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G285" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7605,19 +7590,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F286" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G286" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7628,13 +7613,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F287" s="18">
         <v>171200</v>
@@ -7651,19 +7636,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F288" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G288" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7674,19 +7659,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F289" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G289" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7697,19 +7682,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="F290" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G290" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7720,13 +7705,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="F291" s="18">
         <v>171200</v>
@@ -7743,19 +7728,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F292" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G292" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7766,19 +7751,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="F293" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G293" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7789,19 +7774,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F294" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G294" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7812,13 +7797,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F295" s="18">
         <v>171200</v>
@@ -7835,19 +7820,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F296" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G296" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7858,19 +7843,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F297" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G297" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7881,19 +7866,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F298" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G298" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7904,13 +7889,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F299" s="18">
         <v>171200</v>
@@ -7927,19 +7912,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F300" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G300" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7950,19 +7935,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F301" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G301" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7973,19 +7958,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F302" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G302" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7996,13 +7981,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F303" s="18">
         <v>171200</v>
@@ -8019,19 +8004,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F304" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G304" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8042,19 +8027,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F305" s="18">
-        <v>171200</v>
+        <v>358517</v>
       </c>
       <c r="G305" s="18">
-        <v>4280000</v>
+        <v>8962915</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8065,19 +8050,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F306" s="18">
-        <v>171200</v>
+        <v>280000</v>
       </c>
       <c r="G306" s="18">
-        <v>4280000</v>
+        <v>7000000</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8088,13 +8073,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F307" s="18">
         <v>171200</v>
@@ -8111,19 +8096,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F308" s="18">
-        <v>171200</v>
+        <v>52000</v>
       </c>
       <c r="G308" s="18">
-        <v>4280000</v>
+        <v>1300000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8134,19 +8119,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F309" s="18">
-        <v>171200</v>
+        <v>120000</v>
       </c>
       <c r="G309" s="18">
-        <v>4280000</v>
+        <v>3156000</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8157,19 +8142,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F310" s="18">
-        <v>51508</v>
+        <v>358517</v>
       </c>
       <c r="G310" s="18">
-        <v>1452317</v>
+        <v>8962915</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8180,19 +8165,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F311" s="18">
-        <v>99052</v>
+        <v>280000</v>
       </c>
       <c r="G311" s="18">
-        <v>2754659</v>
+        <v>7000000</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8203,19 +8188,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="F312" s="18">
-        <v>99052</v>
+        <v>171200</v>
       </c>
       <c r="G312" s="18">
-        <v>2754659</v>
+        <v>4280000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8226,19 +8211,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="F313" s="18">
-        <v>99052</v>
+        <v>52000</v>
       </c>
       <c r="G313" s="18">
-        <v>2754659</v>
+        <v>1300000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8249,19 +8234,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F314" s="18">
-        <v>99052</v>
+        <v>120000</v>
       </c>
       <c r="G314" s="18">
-        <v>2754659</v>
+        <v>3156000</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8272,19 +8257,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="F315" s="18">
-        <v>99052</v>
+        <v>358517</v>
       </c>
       <c r="G315" s="18">
-        <v>2754659</v>
+        <v>8962915</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8295,19 +8280,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="F316" s="18">
-        <v>99052</v>
+        <v>280000</v>
       </c>
       <c r="G316" s="18">
-        <v>2754659</v>
+        <v>7000000</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8318,19 +8303,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="F317" s="18">
-        <v>99052</v>
+        <v>171200</v>
       </c>
       <c r="G317" s="18">
-        <v>2754659</v>
+        <v>4280000</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8341,13 +8326,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F318" s="18">
         <v>52000</v>
@@ -8364,19 +8349,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="F319" s="18">
-        <v>52000</v>
+        <v>358517</v>
       </c>
       <c r="G319" s="18">
-        <v>1300000</v>
+        <v>8962915</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8387,19 +8372,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="F320" s="18">
-        <v>52000</v>
+        <v>280000</v>
       </c>
       <c r="G320" s="18">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8410,19 +8395,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="F321" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G321" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8433,13 +8418,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="F322" s="18">
         <v>52000</v>
@@ -8456,19 +8441,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="F323" s="18">
-        <v>52000</v>
+        <v>120000</v>
       </c>
       <c r="G323" s="18">
-        <v>1300000</v>
+        <v>3156000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8479,19 +8464,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F324" s="18">
-        <v>52000</v>
+        <v>358517</v>
       </c>
       <c r="G324" s="18">
-        <v>1300000</v>
+        <v>8962915</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8502,19 +8487,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F325" s="18">
-        <v>52000</v>
+        <v>2464</v>
       </c>
       <c r="G325" s="18">
-        <v>1300000</v>
+        <v>1847934</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8525,19 +8510,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="F326" s="18">
-        <v>52000</v>
+        <v>280000</v>
       </c>
       <c r="G326" s="18">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8548,19 +8533,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="F327" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G327" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8571,13 +8556,13 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="F328" s="18">
         <v>52000</v>
@@ -8594,19 +8579,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="F329" s="18">
-        <v>52000</v>
+        <v>358517</v>
       </c>
       <c r="G329" s="18">
-        <v>1300000</v>
+        <v>8962915</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8617,19 +8602,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="F330" s="18">
-        <v>52000</v>
+        <v>280000</v>
       </c>
       <c r="G330" s="18">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8640,19 +8625,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F331" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G331" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8663,13 +8648,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="F332" s="18">
         <v>52000</v>
@@ -8686,19 +8671,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D333" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E333" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D333" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E333" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F333" s="18">
-        <v>52000</v>
+        <v>358517</v>
       </c>
       <c r="G333" s="18">
-        <v>1300000</v>
+        <v>8962915</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8709,19 +8694,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D334" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E334" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D334" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E334" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F334" s="18">
-        <v>52000</v>
+        <v>280000</v>
       </c>
       <c r="G334" s="18">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8732,19 +8717,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E335" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D335" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F335" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G335" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8755,13 +8740,13 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D336" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E336" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="D336" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F336" s="18">
         <v>52000</v>
@@ -8778,19 +8763,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D337" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E337" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E337" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F337" s="18">
-        <v>52000</v>
+        <v>358517</v>
       </c>
       <c r="G337" s="18">
-        <v>1300000</v>
+        <v>8962915</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8801,19 +8786,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D338" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E338" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E338" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F338" s="18">
-        <v>52000</v>
+        <v>280000</v>
       </c>
       <c r="G338" s="18">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8824,19 +8809,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D339" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E339" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E339" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F339" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G339" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8847,13 +8832,13 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D340" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E340" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F340" s="18">
         <v>52000</v>
@@ -8870,19 +8855,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="F341" s="18">
-        <v>52000</v>
+        <v>358517</v>
       </c>
       <c r="G341" s="18">
-        <v>1300000</v>
+        <v>8962915</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8893,19 +8878,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="F342" s="18">
-        <v>52000</v>
+        <v>280000</v>
       </c>
       <c r="G342" s="18">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8916,19 +8901,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="F343" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G343" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8939,13 +8924,13 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="F344" s="18">
         <v>52000</v>
@@ -8962,19 +8947,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="F345" s="18">
-        <v>52000</v>
+        <v>358517</v>
       </c>
       <c r="G345" s="18">
-        <v>1300000</v>
+        <v>8962915</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8985,19 +8970,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D346" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E346" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E346" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F346" s="18">
-        <v>52000</v>
+        <v>280000</v>
       </c>
       <c r="G346" s="18">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -9008,19 +8993,19 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="D347" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E347" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E347" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F347" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G347" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H347" s="19"/>
       <c r="I347" s="19"/>
@@ -9031,13 +9016,13 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D348" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E348" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="E348" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F348" s="18">
         <v>52000</v>
@@ -9054,19 +9039,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="F349" s="18">
-        <v>52000</v>
+        <v>358517</v>
       </c>
       <c r="G349" s="18">
-        <v>1300000</v>
+        <v>8962915</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -9077,19 +9062,19 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F350" s="18">
-        <v>52000</v>
+        <v>280000</v>
       </c>
       <c r="G350" s="18">
-        <v>1300000</v>
+        <v>7000000</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -9100,880 +9085,75 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="F351" s="18">
-        <v>52000</v>
+        <v>171200</v>
       </c>
       <c r="G351" s="18">
-        <v>1300000</v>
+        <v>4280000</v>
       </c>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
       <c r="J351" s="20"/>
     </row>
     <row r="352" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B352" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C352" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D352" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E352" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F352" s="18">
+      <c r="B352" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D352" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E352" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F352" s="24">
         <v>52000</v>
       </c>
-      <c r="G352" s="18">
+      <c r="G352" s="24">
         <v>1300000</v>
       </c>
-      <c r="H352" s="19"/>
-      <c r="I352" s="19"/>
-      <c r="J352" s="20"/>
-    </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B353" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C353" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D353" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E353" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F353" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G353" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H353" s="19"/>
-      <c r="I353" s="19"/>
-      <c r="J353" s="20"/>
-    </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B354" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C354" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D354" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E354" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F354" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G354" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H354" s="19"/>
-      <c r="I354" s="19"/>
-      <c r="J354" s="20"/>
-    </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B355" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C355" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D355" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E355" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F355" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G355" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H355" s="19"/>
-      <c r="I355" s="19"/>
-      <c r="J355" s="20"/>
-    </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B356" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C356" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D356" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E356" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F356" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G356" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H356" s="19"/>
-      <c r="I356" s="19"/>
-      <c r="J356" s="20"/>
+      <c r="H352" s="25"/>
+      <c r="I352" s="25"/>
+      <c r="J352" s="26"/>
     </row>
     <row r="357" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B357" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C357" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D357" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E357" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F357" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G357" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H357" s="19"/>
-      <c r="I357" s="19"/>
-      <c r="J357" s="20"/>
+      <c r="B357" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C357" s="32"/>
+      <c r="H357" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
     </row>
     <row r="358" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B358" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C358" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D358" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E358" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F358" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G358" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H358" s="19"/>
-      <c r="I358" s="19"/>
-      <c r="J358" s="20"/>
-    </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B359" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C359" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D359" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E359" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F359" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G359" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H359" s="19"/>
-      <c r="I359" s="19"/>
-      <c r="J359" s="20"/>
-    </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B360" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C360" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D360" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E360" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F360" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G360" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H360" s="19"/>
-      <c r="I360" s="19"/>
-      <c r="J360" s="20"/>
-    </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B361" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C361" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D361" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E361" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F361" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G361" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H361" s="19"/>
-      <c r="I361" s="19"/>
-      <c r="J361" s="20"/>
-    </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B362" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C362" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D362" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E362" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F362" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G362" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H362" s="19"/>
-      <c r="I362" s="19"/>
-      <c r="J362" s="20"/>
-    </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B363" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C363" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D363" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E363" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F363" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G363" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H363" s="19"/>
-      <c r="I363" s="19"/>
-      <c r="J363" s="20"/>
-    </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B364" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C364" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D364" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E364" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F364" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G364" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H364" s="19"/>
-      <c r="I364" s="19"/>
-      <c r="J364" s="20"/>
-    </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B365" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C365" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D365" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E365" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F365" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G365" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H365" s="19"/>
-      <c r="I365" s="19"/>
-      <c r="J365" s="20"/>
-    </row>
-    <row r="366" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B366" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C366" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D366" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E366" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F366" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G366" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H366" s="19"/>
-      <c r="I366" s="19"/>
-      <c r="J366" s="20"/>
-    </row>
-    <row r="367" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B367" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C367" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D367" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E367" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F367" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G367" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H367" s="19"/>
-      <c r="I367" s="19"/>
-      <c r="J367" s="20"/>
-    </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B368" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C368" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D368" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E368" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F368" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G368" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H368" s="19"/>
-      <c r="I368" s="19"/>
-      <c r="J368" s="20"/>
-    </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B369" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C369" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D369" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E369" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F369" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G369" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H369" s="19"/>
-      <c r="I369" s="19"/>
-      <c r="J369" s="20"/>
-    </row>
-    <row r="370" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B370" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C370" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D370" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E370" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F370" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G370" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H370" s="19"/>
-      <c r="I370" s="19"/>
-      <c r="J370" s="20"/>
-    </row>
-    <row r="371" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B371" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C371" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D371" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E371" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F371" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G371" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H371" s="19"/>
-      <c r="I371" s="19"/>
-      <c r="J371" s="20"/>
-    </row>
-    <row r="372" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B372" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C372" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D372" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E372" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F372" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G372" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H372" s="19"/>
-      <c r="I372" s="19"/>
-      <c r="J372" s="20"/>
-    </row>
-    <row r="373" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B373" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C373" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D373" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E373" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F373" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G373" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H373" s="19"/>
-      <c r="I373" s="19"/>
-      <c r="J373" s="20"/>
-    </row>
-    <row r="374" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B374" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C374" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D374" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E374" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F374" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G374" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H374" s="19"/>
-      <c r="I374" s="19"/>
-      <c r="J374" s="20"/>
-    </row>
-    <row r="375" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B375" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C375" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D375" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E375" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F375" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G375" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H375" s="19"/>
-      <c r="I375" s="19"/>
-      <c r="J375" s="20"/>
-    </row>
-    <row r="376" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B376" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C376" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D376" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E376" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F376" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G376" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H376" s="19"/>
-      <c r="I376" s="19"/>
-      <c r="J376" s="20"/>
-    </row>
-    <row r="377" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B377" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C377" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D377" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E377" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F377" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G377" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H377" s="19"/>
-      <c r="I377" s="19"/>
-      <c r="J377" s="20"/>
-    </row>
-    <row r="378" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B378" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C378" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D378" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E378" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F378" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G378" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H378" s="19"/>
-      <c r="I378" s="19"/>
-      <c r="J378" s="20"/>
-    </row>
-    <row r="379" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B379" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C379" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D379" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E379" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F379" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G379" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H379" s="19"/>
-      <c r="I379" s="19"/>
-      <c r="J379" s="20"/>
-    </row>
-    <row r="380" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B380" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C380" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D380" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E380" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F380" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G380" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H380" s="19"/>
-      <c r="I380" s="19"/>
-      <c r="J380" s="20"/>
-    </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B381" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C381" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D381" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E381" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F381" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G381" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H381" s="19"/>
-      <c r="I381" s="19"/>
-      <c r="J381" s="20"/>
-    </row>
-    <row r="382" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B382" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C382" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D382" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E382" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F382" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G382" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H382" s="19"/>
-      <c r="I382" s="19"/>
-      <c r="J382" s="20"/>
-    </row>
-    <row r="383" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B383" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C383" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D383" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E383" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F383" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G383" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H383" s="19"/>
-      <c r="I383" s="19"/>
-      <c r="J383" s="20"/>
-    </row>
-    <row r="384" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B384" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C384" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D384" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E384" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F384" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G384" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H384" s="19"/>
-      <c r="I384" s="19"/>
-      <c r="J384" s="20"/>
-    </row>
-    <row r="385" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B385" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C385" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D385" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E385" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F385" s="18">
-        <v>120000</v>
-      </c>
-      <c r="G385" s="18">
-        <v>3000000</v>
-      </c>
-      <c r="H385" s="19"/>
-      <c r="I385" s="19"/>
-      <c r="J385" s="20"/>
-    </row>
-    <row r="386" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B386" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C386" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D386" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E386" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F386" s="18">
-        <v>120000</v>
-      </c>
-      <c r="G386" s="18">
-        <v>3000000</v>
-      </c>
-      <c r="H386" s="19"/>
-      <c r="I386" s="19"/>
-      <c r="J386" s="20"/>
-    </row>
-    <row r="387" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B387" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C387" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D387" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E387" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F387" s="24">
-        <v>120000</v>
-      </c>
-      <c r="G387" s="24">
-        <v>3000000</v>
-      </c>
-      <c r="H387" s="25"/>
-      <c r="I387" s="25"/>
-      <c r="J387" s="26"/>
-    </row>
-    <row r="392" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B392" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C392" s="32"/>
-      <c r="H392" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I392" s="1"/>
-      <c r="J392" s="1"/>
-    </row>
-    <row r="393" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B393" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C393" s="32"/>
-      <c r="H393" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
+      <c r="B358" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C358" s="32"/>
+      <c r="H358" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B393:C393"/>
-    <mergeCell ref="B392:C392"/>
-    <mergeCell ref="H393:J393"/>
-    <mergeCell ref="H392:J392"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="H358:J358"/>
+    <mergeCell ref="H357:J357"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
